--- a/biology/Médecine/Nerf_du_muscle_carré_fémoral/Nerf_du_muscle_carré_fémoral.xlsx
+++ b/biology/Médecine/Nerf_du_muscle_carré_fémoral/Nerf_du_muscle_carré_fémoral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nerf_du_muscle_carr%C3%A9_f%C3%A9moral</t>
+          <t>Nerf_du_muscle_carré_fémoral</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 Le nerf du muscle carré fémoral (ou nerf du muscle jumeau inférieur et du carré crural) est un nerf mixte du membre inférieur.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nerf_du_muscle_carr%C3%A9_f%C3%A9moral</t>
+          <t>Nerf_du_muscle_carré_fémoral</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nerf du muscle carré fémoral est une branche collatérale de la partie antérieure du plexus sacral. Il est formé par une racine antérieure du tronc lombo-sacré issue des rameaux antérieurs du quatrième et cinquième nerf lombaire et du rameau antérieur du premier nerf sacré[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nerf du muscle carré fémoral est une branche collatérale de la partie antérieure du plexus sacral. Il est formé par une racine antérieure du tronc lombo-sacré issue des rameaux antérieurs du quatrième et cinquième nerf lombaire et du rameau antérieur du premier nerf sacré.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nerf_du_muscle_carr%C3%A9_f%C3%A9moral</t>
+          <t>Nerf_du_muscle_carré_fémoral</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,14 +557,51 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf du muscle carré fémoral sort de la cavité pelvienne par partie inférieure du grand foramen ischiatique en dehors du nerf du muscle obturateur interne sous le muscle piriforme.
-Il descend devant le nerf sciatique, les muscles jumeaux supérieur et inférieur et le tendon du muscle obturateur interne[2].
+Il descend devant le nerf sciatique, les muscles jumeaux supérieur et inférieur et le tendon du muscle obturateur interne.
 À ce niveau il dégage une branche à destination du muscle jumeau inférieur et un rameau sensitif pour l'articulation coxo-fémorale.
 Il se termine en innervant le muscle carré fémoral par sa face antérieure
-Variation
-Rarement, le nerf du muscle carré fémoral peut également innerver le muscle jumeau supérieur, ou la partie supérieure du muscle grand adducteur[2].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nerf_du_muscle_carré_fémoral</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_du_muscle_carr%C3%A9_f%C3%A9moral</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rarement, le nerf du muscle carré fémoral peut également innerver le muscle jumeau supérieur, ou la partie supérieure du muscle grand adducteur.
 </t>
         </is>
       </c>
